--- a/output/widths_record.xlsx
+++ b/output/widths_record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>datetime</t>
   </si>
@@ -31,7 +31,7 @@
     <t>width_mm</t>
   </si>
   <si>
-    <t>Test.mp4</t>
+    <t>GX010040.mp4</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,19 +418,223 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>44647.42628465701</v>
+        <v>44647.68116138004</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>205</v>
+        <v>176.6666666666667</v>
       </c>
       <c r="D2">
-        <v>163104</v>
+        <v>143660</v>
       </c>
       <c r="E2">
-        <v>54.7</v>
+        <v>46.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>44647.68117323454</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>107.6666666666667</v>
+      </c>
+      <c r="D3">
+        <v>56641</v>
+      </c>
+      <c r="E3">
+        <v>28.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>44647.68119547766</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>174.3333333333333</v>
+      </c>
+      <c r="D4">
+        <v>159480</v>
+      </c>
+      <c r="E4">
+        <v>46.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>44647.6812127542</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>161</v>
+      </c>
+      <c r="D5">
+        <v>120475</v>
+      </c>
+      <c r="E5">
+        <v>42.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>44647.6812277308</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>124.6666666666667</v>
+      </c>
+      <c r="D6">
+        <v>88295</v>
+      </c>
+      <c r="E6">
+        <v>32.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>44647.68125527939</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>117</v>
+      </c>
+      <c r="D7">
+        <v>88087</v>
+      </c>
+      <c r="E7">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>44647.68127207481</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>143.3333333333333</v>
+      </c>
+      <c r="D8">
+        <v>98067</v>
+      </c>
+      <c r="E8">
+        <v>37.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>44647.6812852403</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>113.6666666666667</v>
+      </c>
+      <c r="D9">
+        <v>107940</v>
+      </c>
+      <c r="E9">
+        <v>30.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>44647.6813012189</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>102.6666666666667</v>
+      </c>
+      <c r="D10">
+        <v>77824</v>
+      </c>
+      <c r="E10">
+        <v>27.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>44647.68131462771</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>167.3333333333333</v>
+      </c>
+      <c r="D11">
+        <v>150527</v>
+      </c>
+      <c r="E11">
+        <v>44.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>44647.68133510334</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>151</v>
+      </c>
+      <c r="D12">
+        <v>136626</v>
+      </c>
+      <c r="E12">
+        <v>39.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>44647.68135215723</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>74.33333333333333</v>
+      </c>
+      <c r="D13">
+        <v>52287</v>
+      </c>
+      <c r="E13">
+        <v>19.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>44647.68137778233</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>190.3333333333333</v>
+      </c>
+      <c r="D14">
+        <v>137122</v>
+      </c>
+      <c r="E14">
+        <v>50.26</v>
       </c>
     </row>
   </sheetData>
